--- a/data/trans_orig/P74B2S1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82322257-1637-4C0D-8A00-AFA5EE28FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{904EE188-F2D1-4898-A54E-D86EF390E0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C046EB09-C889-47C8-B7A6-6615F4870B40}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F9F030EB-294B-4CD2-851E-D51150D689F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="627">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2007 (Tasa respuesta: 9,37%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>46,17%</t>
+    <t>51,66%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>9,87%</t>
+    <t>9,1%</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -103,13 +103,13 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>19,42%</t>
+    <t>22,84%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>15,25%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>Viudedad</t>
@@ -124,7 +124,7 @@
     <t>88,79%</t>
   </si>
   <si>
-    <t>53,83%</t>
+    <t>48,34%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -133,1636 +133,1648 @@
     <t>93,54%</t>
   </si>
   <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>70,84%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -1771,34 +1783,31 @@
     <t>14,85%</t>
   </si>
   <si>
-    <t>10,06%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>1,7%</t>
@@ -1810,100 +1819,106 @@
     <t>35,75%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
   </si>
   <si>
     <t>91,15%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDD6BEF-DD38-44BB-8126-6E8C4C66A55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885CD3F9-5E65-41BE-AF8F-3193F24D0605}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2885,7 +2900,7 @@
         <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,7 +2956,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2959,7 +2974,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2974,7 +2989,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2989,7 +3004,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3019,13 +3034,13 @@
         <v>996</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3034,13 +3049,13 @@
         <v>996</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3076,7 +3091,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3091,7 +3106,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3124,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>35</v>
@@ -3121,10 +3136,10 @@
         <v>47425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>29</v>
@@ -3136,10 +3151,10 @@
         <v>52422</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>29</v>
@@ -3198,7 +3213,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3216,7 +3231,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3231,7 +3246,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3246,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3276,13 @@
         <v>1705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3276,13 +3291,13 @@
         <v>2745</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3291,13 +3306,13 @@
         <v>4450</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3333,7 +3348,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3348,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,10 +3378,10 @@
         <v>18297</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>29</v>
@@ -3378,13 +3393,13 @@
         <v>55766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -3393,13 +3408,13 @@
         <v>74063</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,7 +3470,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3473,7 +3488,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3488,7 +3503,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3503,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3533,13 @@
         <v>1453</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3533,13 +3548,13 @@
         <v>2218</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3548,13 +3563,13 @@
         <v>3671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3584,13 @@
         <v>868</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3590,7 +3605,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3599,13 +3614,13 @@
         <v>868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,10 +3635,10 @@
         <v>5022</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>29</v>
@@ -3635,10 +3650,10 @@
         <v>36535</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>29</v>
@@ -3650,13 +3665,13 @@
         <v>41556</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,7 +3727,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3724,7 +3739,7 @@
         <v>976</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
@@ -3745,7 +3760,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3754,13 +3769,13 @@
         <v>976</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,7 +3796,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3790,13 +3805,13 @@
         <v>2033</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3805,13 +3820,13 @@
         <v>2033</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3847,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3847,7 +3862,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3862,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3892,7 @@
         <v>2934</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
@@ -3892,10 +3907,10 @@
         <v>48083</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>29</v>
@@ -3907,13 +3922,13 @@
         <v>51017</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3984,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3981,13 +3996,13 @@
         <v>838</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4002,7 +4017,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4011,13 +4026,13 @@
         <v>838</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4047,13 @@
         <v>5976</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -4047,13 +4062,13 @@
         <v>4997</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -4062,13 +4077,13 @@
         <v>10972</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4098,13 @@
         <v>838</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4104,7 +4119,7 @@
         <v>14</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4113,13 +4128,13 @@
         <v>838</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4149,13 @@
         <v>14475</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H37" s="7">
         <v>89</v>
@@ -4149,13 +4164,13 @@
         <v>89672</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M37" s="7">
         <v>104</v>
@@ -4164,13 +4179,13 @@
         <v>104147</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,7 +4241,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4238,13 +4253,13 @@
         <v>2859</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -4259,7 +4274,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -4268,13 +4283,13 @@
         <v>2859</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4304,13 @@
         <v>3581</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -4304,13 +4319,13 @@
         <v>9486</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -4319,13 +4334,13 @@
         <v>13067</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4361,7 @@
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4361,7 +4376,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -4376,7 +4391,7 @@
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4406,13 @@
         <v>20280</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H42" s="7">
         <v>97</v>
@@ -4406,13 +4421,13 @@
         <v>101749</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M42" s="7">
         <v>118</v>
@@ -4421,13 +4436,13 @@
         <v>122029</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4510,13 @@
         <v>6594</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -4516,7 +4531,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -4525,13 +4540,13 @@
         <v>6594</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4561,13 @@
         <v>12714</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="H45" s="7">
         <v>28</v>
@@ -4561,13 +4576,13 @@
         <v>28565</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M45" s="7">
         <v>39</v>
@@ -4576,13 +4591,13 @@
         <v>41279</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4612,13 @@
         <v>1706</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -4618,7 +4633,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -4627,13 +4642,13 @@
         <v>1706</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4663,13 @@
         <v>84216</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="H47" s="7">
         <v>476</v>
@@ -4663,13 +4678,13 @@
         <v>477992</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M47" s="7">
         <v>562</v>
@@ -4678,13 +4693,13 @@
         <v>562209</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,7 +4755,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4764,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CDBB2E-71C6-4153-A628-69FC07ECAA9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFBBD03-115A-47F7-94E2-AD37B5EDA7C7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,7 +4796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4886,39 +4901,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,39 +4946,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,39 +4991,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,39 +5036,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,39 +5081,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5130,13 @@
         <v>5334</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -5130,13 +5145,13 @@
         <v>6098</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -5145,13 +5160,13 @@
         <v>11431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5181,13 @@
         <v>1002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5181,13 +5196,13 @@
         <v>7204</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5196,13 +5211,13 @@
         <v>8207</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5232,13 @@
         <v>982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5238,7 +5253,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5247,13 +5262,13 @@
         <v>982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5283,13 @@
         <v>5319</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5283,13 +5298,13 @@
         <v>41462</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -5298,13 +5313,13 @@
         <v>46781</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,7 +5375,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5372,13 +5387,13 @@
         <v>1028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5387,13 +5402,13 @@
         <v>2028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5402,13 +5417,13 @@
         <v>3057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5438,13 @@
         <v>930</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5444,7 +5459,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5453,13 +5468,13 @@
         <v>930</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,7 +5510,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5525,10 +5540,10 @@
         <v>7093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>29</v>
@@ -5540,10 +5555,10 @@
         <v>24312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>29</v>
@@ -5555,13 +5570,13 @@
         <v>31405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,7 +5632,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5629,13 +5644,13 @@
         <v>7545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5644,13 +5659,13 @@
         <v>6376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -5659,10 +5674,10 @@
         <v>13921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>265</v>
@@ -5874,7 +5889,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5922,7 +5937,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5952,13 @@
         <v>1015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5952,13 +5967,13 @@
         <v>2042</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5967,10 +5982,10 @@
         <v>3057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>298</v>
@@ -5994,7 +6009,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6131,7 +6146,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6149,7 +6164,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6251,7 +6266,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6266,7 +6281,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6388,7 +6403,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6481,13 +6496,13 @@
         <v>10197</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,7 +6523,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6523,7 +6538,7 @@
         <v>14</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6538,7 +6553,7 @@
         <v>14</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6568,13 @@
         <v>7555</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -6568,13 +6583,13 @@
         <v>40646</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M37" s="7">
         <v>45</v>
@@ -6583,13 +6598,13 @@
         <v>48200</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,7 +6660,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6663,7 +6678,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -6672,13 +6687,13 @@
         <v>3173</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>354</v>
+        <v>102</v>
       </c>
       <c r="M39" s="7">
         <v>4</v>
@@ -6687,13 +6702,13 @@
         <v>4271</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6723,13 @@
         <v>3316</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -6723,13 +6738,13 @@
         <v>7404</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>62</v>
+        <v>359</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>353</v>
+        <v>144</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -6738,13 +6753,13 @@
         <v>10719</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6795,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6810,13 +6825,13 @@
         <v>7725</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H42" s="7">
         <v>52</v>
@@ -6825,13 +6840,13 @@
         <v>59200</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M42" s="7">
         <v>59</v>
@@ -6840,13 +6855,13 @@
         <v>66924</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6929,13 @@
         <v>18764</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="H44" s="7">
         <v>24</v>
@@ -6929,13 +6944,13 @@
         <v>25961</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M44" s="7">
         <v>40</v>
@@ -6944,13 +6959,13 @@
         <v>44725</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6980,13 @@
         <v>14424</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H45" s="7">
         <v>27</v>
@@ -6980,13 +6995,13 @@
         <v>32166</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M45" s="7">
         <v>40</v>
@@ -6995,13 +7010,13 @@
         <v>46590</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +7031,13 @@
         <v>1949</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7037,7 +7052,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -7046,13 +7061,13 @@
         <v>1949</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7082,13 @@
         <v>46217</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H47" s="7">
         <v>239</v>
@@ -7082,13 +7097,13 @@
         <v>257003</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M47" s="7">
         <v>282</v>
@@ -7097,13 +7112,13 @@
         <v>303220</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7174,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -7183,7 +7198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7F17A0-C840-4FB7-A502-59F8C7141B20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6D2D1B-EF46-4B46-A158-3A2CE1679AC7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7200,7 +7215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7307,13 +7322,13 @@
         <v>6045</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7322,13 +7337,13 @@
         <v>4377</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -7337,13 +7352,13 @@
         <v>10422</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7373,13 @@
         <v>1313</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7490,13 +7505,13 @@
         <v>37860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>425</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7579,13 @@
         <v>8864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -7579,13 +7594,13 @@
         <v>2144</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -7594,13 +7609,13 @@
         <v>11008</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7630,13 @@
         <v>929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7630,13 +7645,13 @@
         <v>6013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -7645,10 +7660,10 @@
         <v>6942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>442</v>
@@ -7738,7 +7753,7 @@
         <v>450</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>451</v>
+        <v>178</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -7747,13 +7762,13 @@
         <v>99993</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,7 +7824,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7821,13 +7836,13 @@
         <v>1658</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -7836,13 +7851,13 @@
         <v>3078</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -7851,10 +7866,10 @@
         <v>4737</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>461</v>
@@ -8066,7 +8081,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8099,7 +8114,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8108,13 +8123,13 @@
         <v>4056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8144,13 @@
         <v>2120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -8144,13 +8159,13 @@
         <v>7231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -8159,7 +8174,7 @@
         <v>9351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>379</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>489</v>
@@ -8201,7 +8216,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8216,7 +8231,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8246,13 @@
         <v>22610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -8246,13 +8261,13 @@
         <v>76895</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -8261,13 +8276,13 @@
         <v>99504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8323,7 +8338,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8335,13 +8350,13 @@
         <v>16158</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>320</v>
+        <v>505</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -8350,13 +8365,13 @@
         <v>2142</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>506</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -8365,13 +8380,13 @@
         <v>18299</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,13 +8401,13 @@
         <v>2067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8401,13 +8416,13 @@
         <v>1030</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -8416,13 +8431,13 @@
         <v>3097</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8443,7 +8458,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8473,7 +8488,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8488,13 +8503,13 @@
         <v>3563</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H27" s="7">
         <v>39</v>
@@ -8503,13 +8518,13 @@
         <v>40296</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>89</v>
+        <v>524</v>
       </c>
       <c r="M27" s="7">
         <v>43</v>
@@ -8518,13 +8533,13 @@
         <v>43859</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8580,7 +8595,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8598,7 +8613,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -8607,13 +8622,13 @@
         <v>2890</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>526</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -8622,13 +8637,13 @@
         <v>2890</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>531</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8649,7 +8664,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -8658,13 +8673,13 @@
         <v>2135</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -8673,13 +8688,13 @@
         <v>2135</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8700,7 +8715,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8715,7 +8730,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8730,7 +8745,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,7 +8763,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>35</v>
@@ -8760,13 +8775,13 @@
         <v>44138</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -8775,13 +8790,13 @@
         <v>47100</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8837,7 +8852,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8849,13 +8864,13 @@
         <v>7153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -8864,13 +8879,13 @@
         <v>3945</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -8879,13 +8894,13 @@
         <v>11098</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8900,13 +8915,13 @@
         <v>4161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -8915,13 +8930,13 @@
         <v>3493</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -8930,13 +8945,13 @@
         <v>7654</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8957,7 +8972,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8972,7 +8987,7 @@
         <v>14</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8987,7 +9002,7 @@
         <v>14</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9002,13 +9017,13 @@
         <v>9791</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H37" s="7">
         <v>75</v>
@@ -9017,13 +9032,13 @@
         <v>87324</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -9032,13 +9047,13 @@
         <v>97115</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9094,7 +9109,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9106,13 +9121,13 @@
         <v>23144</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -9121,13 +9136,13 @@
         <v>3073</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="M39" s="7">
         <v>28</v>
@@ -9136,13 +9151,13 @@
         <v>26217</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>262</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,13 +9172,13 @@
         <v>4834</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>579</v>
+        <v>492</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -9172,13 +9187,13 @@
         <v>8692</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -9187,13 +9202,13 @@
         <v>13526</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9229,7 +9244,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -9244,7 +9259,7 @@
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9259,13 +9274,13 @@
         <v>15567</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H42" s="7">
         <v>101</v>
@@ -9274,13 +9289,13 @@
         <v>121253</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M42" s="7">
         <v>116</v>
@@ -9289,13 +9304,13 @@
         <v>136819</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9363,13 +9378,13 @@
         <v>65117</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H44" s="7">
         <v>23</v>
@@ -9381,10 +9396,10 @@
         <v>465</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M44" s="7">
         <v>89</v>
@@ -9393,13 +9408,13 @@
         <v>88726</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9414,13 +9429,13 @@
         <v>18010</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H45" s="7">
         <v>27</v>
@@ -9429,13 +9444,13 @@
         <v>28595</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M45" s="7">
         <v>42</v>
@@ -9444,13 +9459,13 @@
         <v>46605</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>114</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9486,7 +9501,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -9501,7 +9516,7 @@
         <v>14</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9516,13 +9531,13 @@
         <v>82010</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="H47" s="7">
         <v>468</v>
@@ -9531,13 +9546,13 @@
         <v>537551</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="M47" s="7">
         <v>552</v>
@@ -9546,13 +9561,13 @@
         <v>619561</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,7 +9623,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B2S1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904EE188-F2D1-4898-A54E-D86EF390E0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8177AF5C-648F-4C49-8426-8E6769D8235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F9F030EB-294B-4CD2-851E-D51150D689F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B542AD3-E1B3-467D-8438-DDA5A7BB0FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="619">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2007 (Tasa respuesta: 9,37%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>51,66%</t>
+    <t>44,89%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>9,1%</t>
+    <t>10,23%</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -103,13 +103,13 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>22,84%</t>
+    <t>19,69%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>15,65%</t>
   </si>
   <si>
     <t>Viudedad</t>
@@ -124,7 +124,7 @@
     <t>88,79%</t>
   </si>
   <si>
-    <t>48,34%</t>
+    <t>55,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -133,1792 +133,1768 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>77,16%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>92,6%</t>
   </si>
   <si>
-    <t>80,33%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2016 (Tasa respuesta: 10,4%)</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
   </si>
   <si>
     <t>91,15%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885CD3F9-5E65-41BE-AF8F-3193F24D0605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D651EB72-2260-47FC-9401-4170E347635C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2643,7 +2619,7 @@
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2634,13 @@
         <v>8246</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -2673,13 +2649,13 @@
         <v>33150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2688,18 +2664,18 @@
         <v>41396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2711,13 +2687,13 @@
         <v>996</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2732,7 +2708,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2741,13 +2717,13 @@
         <v>996</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2744,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2777,13 +2753,13 @@
         <v>3948</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2792,13 +2768,13 @@
         <v>3948</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2795,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2834,7 +2810,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2849,7 +2825,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,10 +2840,10 @@
         <v>10889</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>29</v>
@@ -2879,13 +2855,13 @@
         <v>67754</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -2894,13 +2870,13 @@
         <v>78644</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2891,13 @@
         <v>11885</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -2930,13 +2906,13 @@
         <v>71702</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -2945,18 +2921,18 @@
         <v>83588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2974,7 +2950,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2989,7 +2965,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3004,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3034,13 +3010,13 @@
         <v>996</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3049,13 +3025,13 @@
         <v>996</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3052,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3091,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3106,7 +3082,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,10 +3100,10 @@
         <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -3136,10 +3112,10 @@
         <v>47425</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>29</v>
@@ -3151,10 +3127,10 @@
         <v>52422</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>29</v>
@@ -3172,13 +3148,13 @@
         <v>4997</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -3187,13 +3163,13 @@
         <v>48421</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -3202,18 +3178,18 @@
         <v>53418</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3231,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3246,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3261,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3252,13 @@
         <v>1705</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3291,13 +3267,13 @@
         <v>2745</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3306,13 +3282,13 @@
         <v>4450</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3309,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3348,7 +3324,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3363,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,10 +3354,10 @@
         <v>18297</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>29</v>
@@ -3393,13 +3369,13 @@
         <v>55766</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -3408,13 +3384,13 @@
         <v>74063</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3405,13 @@
         <v>20002</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -3444,13 +3420,13 @@
         <v>58511</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>84</v>
@@ -3459,18 +3435,18 @@
         <v>78513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3488,7 +3464,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3503,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3518,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3509,13 @@
         <v>1453</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3548,13 +3524,13 @@
         <v>2218</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3563,13 +3539,13 @@
         <v>3671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3560,13 @@
         <v>868</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3605,7 +3581,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3614,13 +3590,13 @@
         <v>868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,10 +3611,10 @@
         <v>5022</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>29</v>
@@ -3650,10 +3626,10 @@
         <v>36535</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>29</v>
@@ -3665,13 +3641,13 @@
         <v>41556</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3662,13 @@
         <v>7342</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -3701,13 +3677,13 @@
         <v>38753</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -3716,18 +3692,18 @@
         <v>46095</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3739,7 +3715,7 @@
         <v>976</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
@@ -3760,7 +3736,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3769,13 +3745,13 @@
         <v>976</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3772,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3805,13 +3781,13 @@
         <v>2033</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3820,13 +3796,13 @@
         <v>2033</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3823,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3862,7 +3838,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3877,7 +3853,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3868,7 @@
         <v>2934</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
@@ -3907,10 +3883,10 @@
         <v>48083</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>29</v>
@@ -3922,13 +3898,13 @@
         <v>51017</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3919,13 @@
         <v>3910</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="7">
         <v>49</v>
@@ -3958,13 +3934,13 @@
         <v>50116</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M33" s="7">
         <v>53</v>
@@ -3973,18 +3949,18 @@
         <v>54026</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3996,13 +3972,13 @@
         <v>838</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4017,7 +3993,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4026,13 +4002,13 @@
         <v>838</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4023,13 @@
         <v>5976</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -4062,13 +4038,13 @@
         <v>4997</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -4077,13 +4053,13 @@
         <v>10972</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4074,13 @@
         <v>838</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4119,7 +4095,7 @@
         <v>14</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4128,13 +4104,13 @@
         <v>838</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4125,13 @@
         <v>14475</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H37" s="7">
         <v>89</v>
@@ -4164,13 +4140,13 @@
         <v>89672</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M37" s="7">
         <v>104</v>
@@ -4179,13 +4155,13 @@
         <v>104147</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4176,13 @@
         <v>22127</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38" s="7">
         <v>94</v>
@@ -4215,13 +4191,13 @@
         <v>94669</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M38" s="7">
         <v>116</v>
@@ -4230,18 +4206,18 @@
         <v>116796</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4253,13 +4229,13 @@
         <v>2859</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -4274,7 +4250,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -4283,13 +4259,13 @@
         <v>2859</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4280,13 @@
         <v>3581</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -4319,13 +4295,13 @@
         <v>9486</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -4334,13 +4310,13 @@
         <v>13067</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4376,7 +4352,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -4391,7 +4367,7 @@
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4382,13 @@
         <v>20280</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H42" s="7">
         <v>97</v>
@@ -4421,13 +4397,13 @@
         <v>101749</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M42" s="7">
         <v>118</v>
@@ -4436,13 +4412,13 @@
         <v>122029</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4433,13 @@
         <v>26721</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43" s="7">
         <v>106</v>
@@ -4472,13 +4448,13 @@
         <v>111235</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M43" s="7">
         <v>133</v>
@@ -4487,13 +4463,13 @@
         <v>137956</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4486,13 @@
         <v>6594</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -4531,7 +4507,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -4540,13 +4516,13 @@
         <v>6594</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4537,13 @@
         <v>12714</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="H45" s="7">
         <v>28</v>
@@ -4576,13 +4552,13 @@
         <v>28565</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M45" s="7">
         <v>39</v>
@@ -4591,13 +4567,13 @@
         <v>41279</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4588,13 @@
         <v>1706</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -4633,7 +4609,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -4642,13 +4618,13 @@
         <v>1706</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4639,13 @@
         <v>84216</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H47" s="7">
         <v>476</v>
@@ -4678,13 +4654,13 @@
         <v>477992</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M47" s="7">
         <v>562</v>
@@ -4693,13 +4669,13 @@
         <v>562209</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4690,13 @@
         <v>105230</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48" s="7">
         <v>504</v>
@@ -4729,13 +4705,13 @@
         <v>506557</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M48" s="7">
         <v>610</v>
@@ -4744,18 +4720,18 @@
         <v>611788</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4779,7 +4755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFBBD03-115A-47F7-94E2-AD37B5EDA7C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE75999-58AB-4899-A8A6-9FC711042541}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4796,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4901,39 +4877,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,39 +4922,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,39 +4967,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,39 +5012,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,44 +5057,44 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5130,13 +5106,13 @@
         <v>5334</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -5145,13 +5121,13 @@
         <v>6098</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -5160,13 +5136,13 @@
         <v>11431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5157,13 @@
         <v>1002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5196,13 +5172,13 @@
         <v>7204</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5211,13 +5187,13 @@
         <v>8207</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5208,13 @@
         <v>982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5253,7 +5229,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5262,13 +5238,13 @@
         <v>982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5259,13 @@
         <v>5319</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5298,13 +5274,13 @@
         <v>41462</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -5313,13 +5289,13 @@
         <v>46781</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5310,13 @@
         <v>12637</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5349,13 +5325,13 @@
         <v>54764</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -5364,18 +5340,18 @@
         <v>67401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5387,13 +5363,13 @@
         <v>1028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5402,13 +5378,13 @@
         <v>2028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5417,13 +5393,13 @@
         <v>3057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5414,13 @@
         <v>930</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5459,7 +5435,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5468,13 +5444,13 @@
         <v>930</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,7 +5486,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5540,10 +5516,10 @@
         <v>7093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>29</v>
@@ -5555,10 +5531,10 @@
         <v>24312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>29</v>
@@ -5570,13 +5546,13 @@
         <v>31405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5567,13 @@
         <v>9051</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -5606,13 +5582,13 @@
         <v>26340</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -5621,18 +5597,18 @@
         <v>35392</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5644,13 +5620,13 @@
         <v>7545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5659,13 +5635,13 @@
         <v>6376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -5674,13 +5650,13 @@
         <v>13921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5671,13 @@
         <v>6324</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5710,13 +5686,13 @@
         <v>5358</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5725,13 +5701,13 @@
         <v>11682</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5722,13 @@
         <v>967</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5767,7 +5743,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -5776,13 +5752,13 @@
         <v>967</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5773,13 @@
         <v>11205</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -5812,13 +5788,13 @@
         <v>50562</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -5827,13 +5803,13 @@
         <v>61767</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5824,13 @@
         <v>26040</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -5863,13 +5839,13 @@
         <v>62297</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -5878,18 +5854,18 @@
         <v>88337</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5901,13 +5877,13 @@
         <v>985</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5922,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -5931,13 +5907,13 @@
         <v>984</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5928,13 @@
         <v>1015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5967,13 +5943,13 @@
         <v>2042</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5982,13 +5958,13 @@
         <v>3057</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6024,7 +6000,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6039,7 +6015,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,10 +6030,10 @@
         <v>3248</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>29</v>
@@ -6069,10 +6045,10 @@
         <v>19232</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>29</v>
@@ -6084,13 +6060,13 @@
         <v>22480</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6081,13 @@
         <v>5247</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -6120,13 +6096,13 @@
         <v>21274</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -6135,18 +6111,18 @@
         <v>26521</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6164,7 +6140,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6173,13 +6149,13 @@
         <v>1953</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6188,13 +6164,13 @@
         <v>1953</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,13 +6185,13 @@
         <v>852</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6224,13 +6200,13 @@
         <v>947</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -6239,13 +6215,13 @@
         <v>1799</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,7 +6242,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6281,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6296,7 +6272,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,10 +6287,10 @@
         <v>4073</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>29</v>
@@ -6326,13 +6302,13 @@
         <v>21589</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -6341,13 +6317,13 @@
         <v>25663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6338,13 @@
         <v>4925</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -6377,13 +6353,13 @@
         <v>24489</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M33" s="7">
         <v>29</v>
@@ -6392,18 +6368,18 @@
         <v>29415</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6415,13 +6391,13 @@
         <v>2775</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -6430,13 +6406,13 @@
         <v>6333</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -6445,13 +6421,13 @@
         <v>9108</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,13 +6442,13 @@
         <v>986</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -6481,13 +6457,13 @@
         <v>9211</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -6496,13 +6472,13 @@
         <v>10197</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>65</v>
+        <v>336</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,7 +6499,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6538,7 +6514,7 @@
         <v>14</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6553,7 +6529,7 @@
         <v>14</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6544,13 @@
         <v>7555</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -6583,13 +6559,13 @@
         <v>40646</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M37" s="7">
         <v>45</v>
@@ -6598,13 +6574,13 @@
         <v>48200</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6595,13 @@
         <v>11315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38" s="7">
         <v>53</v>
@@ -6634,13 +6610,13 @@
         <v>56190</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M38" s="7">
         <v>63</v>
@@ -6649,18 +6625,18 @@
         <v>67505</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6672,13 +6648,13 @@
         <v>1098</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -6687,13 +6663,13 @@
         <v>3173</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>102</v>
+        <v>350</v>
       </c>
       <c r="M39" s="7">
         <v>4</v>
@@ -6702,13 +6678,13 @@
         <v>4271</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6699,13 @@
         <v>3316</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -6738,13 +6714,13 @@
         <v>7404</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -6753,13 +6729,13 @@
         <v>10719</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6756,7 @@
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -6795,7 +6771,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6810,7 +6786,7 @@
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,13 +6801,13 @@
         <v>7725</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H42" s="7">
         <v>52</v>
@@ -6840,13 +6816,13 @@
         <v>59200</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="L42" s="7" t="s">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="M42" s="7">
         <v>59</v>
@@ -6855,13 +6831,13 @@
         <v>66924</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>372</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,13 +6852,13 @@
         <v>12139</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43" s="7">
         <v>61</v>
@@ -6891,13 +6867,13 @@
         <v>69776</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M43" s="7">
         <v>72</v>
@@ -6906,13 +6882,13 @@
         <v>81914</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6905,13 @@
         <v>18764</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="H44" s="7">
         <v>24</v>
@@ -6944,13 +6920,13 @@
         <v>25961</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>115</v>
+        <v>374</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M44" s="7">
         <v>40</v>
@@ -6959,13 +6935,13 @@
         <v>44725</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6956,13 @@
         <v>14424</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H45" s="7">
         <v>27</v>
@@ -6995,10 +6971,10 @@
         <v>32166</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>385</v>
@@ -7037,7 +7013,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>390</v>
+        <v>189</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7052,7 +7028,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -7061,13 +7037,13 @@
         <v>1949</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,13 +7058,13 @@
         <v>46217</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H47" s="7">
         <v>239</v>
@@ -7097,13 +7073,13 @@
         <v>257003</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M47" s="7">
         <v>282</v>
@@ -7112,13 +7088,13 @@
         <v>303220</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,13 +7109,13 @@
         <v>81354</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48" s="7">
         <v>290</v>
@@ -7148,13 +7124,13 @@
         <v>315130</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M48" s="7">
         <v>364</v>
@@ -7163,18 +7139,18 @@
         <v>396485</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6D2D1B-EF46-4B46-A158-3A2CE1679AC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE693AA0-829F-4CE3-BD73-55093CA55FF5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7215,7 +7191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7322,13 +7298,13 @@
         <v>6045</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7337,13 +7313,13 @@
         <v>4377</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -7352,13 +7328,13 @@
         <v>10422</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7349,13 @@
         <v>1313</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7394,7 +7370,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7403,13 +7379,13 @@
         <v>1313</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,7 +7406,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7445,7 +7421,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7460,7 +7436,7 @@
         <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7451,13 @@
         <v>10268</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -7490,13 +7466,13 @@
         <v>27592</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -7505,13 +7481,13 @@
         <v>37860</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,13 +7502,13 @@
         <v>17626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -7541,13 +7517,13 @@
         <v>31969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -7556,18 +7532,18 @@
         <v>49595</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -7579,13 +7555,13 @@
         <v>8864</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -7594,13 +7570,13 @@
         <v>2144</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -7609,13 +7585,13 @@
         <v>11008</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7606,13 @@
         <v>929</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7645,13 +7621,13 @@
         <v>6013</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -7660,10 +7636,10 @@
         <v>6942</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>442</v>
@@ -7753,7 +7729,7 @@
         <v>450</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -7783,13 +7759,13 @@
         <v>15500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -7798,13 +7774,13 @@
         <v>102443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -7813,18 +7789,18 @@
         <v>117943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7851,13 +7827,13 @@
         <v>3078</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -7866,13 +7842,13 @@
         <v>4737</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7863,13 @@
         <v>2586</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7908,7 +7884,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -7917,13 +7893,13 @@
         <v>2586</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,7 +7920,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>467</v>
+        <v>132</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7959,7 +7935,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7974,7 +7950,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,13 +7965,13 @@
         <v>11543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -8004,13 +7980,13 @@
         <v>45768</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -8019,13 +7995,13 @@
         <v>57310</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,13 +8016,13 @@
         <v>15787</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -8055,13 +8031,13 @@
         <v>48846</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -8070,18 +8046,18 @@
         <v>64633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8093,13 +8069,13 @@
         <v>2095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -8108,13 +8084,13 @@
         <v>1962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8123,13 +8099,13 @@
         <v>4056</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8144,13 +8120,13 @@
         <v>2120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -8159,13 +8135,13 @@
         <v>7231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -8174,13 +8150,13 @@
         <v>9351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,7 +8177,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8216,7 +8192,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8231,7 +8207,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8222,13 @@
         <v>22610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -8261,13 +8237,13 @@
         <v>76895</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -8276,13 +8252,13 @@
         <v>99504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8273,13 @@
         <v>26825</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>75</v>
@@ -8312,13 +8288,13 @@
         <v>86088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>103</v>
@@ -8327,18 +8303,18 @@
         <v>112912</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8350,13 +8326,13 @@
         <v>16158</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -8365,13 +8341,13 @@
         <v>2142</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -8380,13 +8356,13 @@
         <v>18299</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,13 +8377,13 @@
         <v>2067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8416,13 +8392,13 @@
         <v>1030</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -8431,13 +8407,13 @@
         <v>3097</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,7 +8434,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8488,7 +8464,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8503,13 +8479,13 @@
         <v>3563</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H27" s="7">
         <v>39</v>
@@ -8518,13 +8494,13 @@
         <v>40296</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M27" s="7">
         <v>43</v>
@@ -8533,13 +8509,13 @@
         <v>43859</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>527</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8554,13 +8530,13 @@
         <v>21788</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7">
         <v>42</v>
@@ -8569,13 +8545,13 @@
         <v>43468</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -8584,18 +8560,18 @@
         <v>65255</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8613,7 +8589,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -8622,13 +8598,13 @@
         <v>2890</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -8637,13 +8613,13 @@
         <v>2890</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8664,7 +8640,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -8673,13 +8649,13 @@
         <v>2135</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -8688,13 +8664,13 @@
         <v>2135</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,7 +8691,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8730,7 +8706,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8745,7 +8721,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8763,10 +8739,10 @@
         <v>29</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -8775,13 +8751,13 @@
         <v>44138</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -8790,13 +8766,13 @@
         <v>47100</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8811,13 +8787,13 @@
         <v>2961</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -8826,13 +8802,13 @@
         <v>49163</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M33" s="7">
         <v>48</v>
@@ -8841,18 +8817,18 @@
         <v>52125</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8864,13 +8840,13 @@
         <v>7153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -8879,13 +8855,13 @@
         <v>3945</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -8894,13 +8870,13 @@
         <v>11098</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8915,13 +8891,13 @@
         <v>4161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -8930,13 +8906,13 @@
         <v>3493</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -8945,13 +8921,13 @@
         <v>7654</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8972,7 +8948,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8987,7 +8963,7 @@
         <v>14</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9002,7 +8978,7 @@
         <v>14</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9017,13 +8993,13 @@
         <v>9791</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="H37" s="7">
         <v>75</v>
@@ -9032,13 +9008,13 @@
         <v>87324</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -9047,13 +9023,13 @@
         <v>97115</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9068,13 +9044,13 @@
         <v>21105</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38" s="7">
         <v>82</v>
@@ -9083,13 +9059,13 @@
         <v>94762</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
@@ -9098,18 +9074,18 @@
         <v>115867</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9121,13 +9097,13 @@
         <v>23144</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -9136,13 +9112,13 @@
         <v>3073</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>578</v>
+        <v>129</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M39" s="7">
         <v>28</v>
@@ -9151,13 +9127,13 @@
         <v>26217</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9172,13 +9148,13 @@
         <v>4834</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>492</v>
+        <v>577</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>485</v>
+        <v>578</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -9187,13 +9163,13 @@
         <v>8692</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>585</v>
+        <v>466</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -9202,13 +9178,13 @@
         <v>13526</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9229,7 +9205,7 @@
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9244,7 +9220,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -9259,7 +9235,7 @@
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9274,13 +9250,13 @@
         <v>15567</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H42" s="7">
         <v>101</v>
@@ -9289,13 +9265,13 @@
         <v>121253</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="M42" s="7">
         <v>116</v>
@@ -9304,13 +9280,13 @@
         <v>136819</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,13 +9301,13 @@
         <v>43545</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43" s="7">
         <v>112</v>
@@ -9340,13 +9316,13 @@
         <v>133017</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M43" s="7">
         <v>156</v>
@@ -9355,13 +9331,13 @@
         <v>176562</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9378,13 +9354,13 @@
         <v>65117</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H44" s="7">
         <v>23</v>
@@ -9393,13 +9369,13 @@
         <v>23609</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>604</v>
+        <v>246</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="M44" s="7">
         <v>89</v>
@@ -9411,10 +9387,10 @@
         <v>386</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9429,13 +9405,13 @@
         <v>18010</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="H45" s="7">
         <v>27</v>
@@ -9444,13 +9420,13 @@
         <v>28595</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>612</v>
+        <v>268</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="M45" s="7">
         <v>42</v>
@@ -9459,13 +9435,13 @@
         <v>46605</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>615</v>
+        <v>433</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9486,7 +9462,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>47</v>
+        <v>608</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -9501,7 +9477,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -9516,7 +9492,7 @@
         <v>14</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9531,13 +9507,13 @@
         <v>82010</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H47" s="7">
         <v>468</v>
@@ -9546,13 +9522,13 @@
         <v>537551</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M47" s="7">
         <v>552</v>
@@ -9561,13 +9537,13 @@
         <v>619561</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9582,13 +9558,13 @@
         <v>165137</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48" s="7">
         <v>518</v>
@@ -9597,13 +9573,13 @@
         <v>589755</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M48" s="7">
         <v>683</v>
@@ -9612,18 +9588,18 @@
         <v>754892</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
